--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H2">
         <v>0.109032</v>
       </c>
       <c r="I2">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J2">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.62804133333333</v>
+        <v>9.358310000000001</v>
       </c>
       <c r="N2">
-        <v>31.884124</v>
+        <v>28.07493</v>
       </c>
       <c r="O2">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="P2">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="Q2">
-        <v>0.3862655342186666</v>
+        <v>0.34011841864</v>
       </c>
       <c r="R2">
-        <v>3.476389807968</v>
+        <v>3.06106576776</v>
       </c>
       <c r="S2">
-        <v>0.001547593242926753</v>
+        <v>0.001670595760603524</v>
       </c>
       <c r="T2">
-        <v>0.001547593242926753</v>
+        <v>0.001670595760603524</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H3">
         <v>0.109032</v>
       </c>
       <c r="I3">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J3">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>79.438063</v>
       </c>
       <c r="O3">
-        <v>0.4737320390559845</v>
+        <v>0.4866586274141183</v>
       </c>
       <c r="P3">
-        <v>0.4737320390559847</v>
+        <v>0.4866586274141184</v>
       </c>
       <c r="Q3">
-        <v>0.9623656538906665</v>
+        <v>0.9623656538906668</v>
       </c>
       <c r="R3">
-        <v>8.661290885015999</v>
+        <v>8.661290885016001</v>
       </c>
       <c r="S3">
-        <v>0.003855768768493991</v>
+        <v>0.004726953594482892</v>
       </c>
       <c r="T3">
-        <v>0.003855768768493991</v>
+        <v>0.004726953594482895</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H4">
         <v>0.109032</v>
       </c>
       <c r="I4">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J4">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.626917</v>
+        <v>5.152806666666667</v>
       </c>
       <c r="N4">
-        <v>16.880751</v>
+        <v>15.45842</v>
       </c>
       <c r="O4">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627494</v>
       </c>
       <c r="P4">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627496</v>
       </c>
       <c r="Q4">
-        <v>0.204504671448</v>
+        <v>0.1872736054933334</v>
       </c>
       <c r="R4">
-        <v>1.840542043032</v>
+        <v>1.68546244944</v>
       </c>
       <c r="S4">
-        <v>0.0008193587561988225</v>
+        <v>0.0009198516583168228</v>
       </c>
       <c r="T4">
-        <v>0.0008193587561988227</v>
+        <v>0.0009198516583168232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H5">
         <v>0.109032</v>
       </c>
       <c r="I5">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J5">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.84347</v>
+        <v>7.974813333333334</v>
       </c>
       <c r="N5">
-        <v>23.53041</v>
+        <v>23.92444</v>
       </c>
       <c r="O5">
-        <v>0.1403245332042314</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="P5">
-        <v>0.1403245332042315</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="Q5">
-        <v>0.2850630736799999</v>
+        <v>0.2898366157866667</v>
       </c>
       <c r="R5">
-        <v>2.56556766312</v>
+        <v>2.60852954208</v>
       </c>
       <c r="S5">
-        <v>0.001142120245150724</v>
+        <v>0.001423621289129247</v>
       </c>
       <c r="T5">
-        <v>0.001142120245150725</v>
+        <v>0.001423621289129247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H6">
         <v>0.109032</v>
       </c>
       <c r="I6">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J6">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.317432666666666</v>
+        <v>5.445246666666667</v>
       </c>
       <c r="N6">
-        <v>15.952298</v>
+        <v>16.33574</v>
       </c>
       <c r="O6">
-        <v>0.09513216175939113</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="P6">
-        <v>0.09513216175939115</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="Q6">
-        <v>0.1932567728373333</v>
+        <v>0.1979020448533333</v>
       </c>
       <c r="R6">
-        <v>1.739310955536</v>
+        <v>1.78111840368</v>
       </c>
       <c r="S6">
-        <v>0.0007742934569553785</v>
+        <v>0.0009720564927613854</v>
       </c>
       <c r="T6">
-        <v>0.0007742934569553787</v>
+        <v>0.0009720564927613858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I7">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J7">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.62804133333333</v>
+        <v>9.358310000000001</v>
       </c>
       <c r="N7">
-        <v>31.884124</v>
+        <v>28.07493</v>
       </c>
       <c r="O7">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="P7">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="Q7">
-        <v>34.34226596658444</v>
+        <v>30.23939792271667</v>
       </c>
       <c r="R7">
-        <v>309.08039369926</v>
+        <v>272.15458130445</v>
       </c>
       <c r="S7">
-        <v>0.137594100556205</v>
+        <v>0.1485300624849849</v>
       </c>
       <c r="T7">
-        <v>0.1375941005562051</v>
+        <v>0.148530062484985</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I8">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J8">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>79.438063</v>
       </c>
       <c r="O8">
-        <v>0.4737320390559845</v>
+        <v>0.4866586274141183</v>
       </c>
       <c r="P8">
-        <v>0.4737320390559847</v>
+        <v>0.4866586274141184</v>
       </c>
       <c r="Q8">
         <v>85.56242873149944</v>
@@ -948,10 +948,10 @@
         <v>770.0618585834949</v>
       </c>
       <c r="S8">
-        <v>0.3428103851437834</v>
+        <v>0.4202660687337837</v>
       </c>
       <c r="T8">
-        <v>0.3428103851437836</v>
+        <v>0.4202660687337839</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I9">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J9">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.626917</v>
+        <v>5.152806666666667</v>
       </c>
       <c r="N9">
-        <v>16.880751</v>
+        <v>15.45842</v>
       </c>
       <c r="O9">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627494</v>
       </c>
       <c r="P9">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627496</v>
       </c>
       <c r="Q9">
-        <v>18.182191254735</v>
+        <v>16.65020406592222</v>
       </c>
       <c r="R9">
-        <v>163.639721292615</v>
+        <v>149.8518365933</v>
       </c>
       <c r="S9">
-        <v>0.07284790858793105</v>
+        <v>0.08178257571859093</v>
       </c>
       <c r="T9">
-        <v>0.07284790858793108</v>
+        <v>0.08178257571859096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I10">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J10">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.84347</v>
+        <v>7.974813333333334</v>
       </c>
       <c r="N10">
-        <v>23.53041</v>
+        <v>23.92444</v>
       </c>
       <c r="O10">
-        <v>0.1403245332042314</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="P10">
-        <v>0.1403245332042315</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="Q10">
-        <v>25.34451310385</v>
+        <v>25.76892128451111</v>
       </c>
       <c r="R10">
-        <v>228.10061793465</v>
+        <v>231.9202915606</v>
       </c>
       <c r="S10">
-        <v>0.1015441289736777</v>
+        <v>0.1265719475745183</v>
       </c>
       <c r="T10">
-        <v>0.1015441289736777</v>
+        <v>0.1265719475745184</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I11">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J11">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.317432666666666</v>
+        <v>5.445246666666667</v>
       </c>
       <c r="N11">
-        <v>15.952298</v>
+        <v>16.33574</v>
       </c>
       <c r="O11">
-        <v>0.09513216175939113</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="P11">
-        <v>0.09513216175939115</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="Q11">
-        <v>17.18215813908555</v>
+        <v>17.59516202612222</v>
       </c>
       <c r="R11">
-        <v>154.63942325177</v>
+        <v>158.3564582351</v>
       </c>
       <c r="S11">
-        <v>0.06884122314649598</v>
+        <v>0.08642402609511288</v>
       </c>
       <c r="T11">
-        <v>0.068841223146496</v>
+        <v>0.0864240260951129</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H12">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I12">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J12">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.62804133333333</v>
+        <v>9.358310000000001</v>
       </c>
       <c r="N12">
-        <v>31.884124</v>
+        <v>28.07493</v>
       </c>
       <c r="O12">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="P12">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="Q12">
-        <v>5.717259182894667</v>
+        <v>1.909828307616667</v>
       </c>
       <c r="R12">
-        <v>51.455332646052</v>
+        <v>17.18845476855</v>
       </c>
       <c r="S12">
-        <v>0.02290650056937212</v>
+        <v>0.009380706540218451</v>
       </c>
       <c r="T12">
-        <v>0.02290650056937213</v>
+        <v>0.009380706540218456</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H13">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I13">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J13">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>79.438063</v>
       </c>
       <c r="O13">
-        <v>0.4737320390559845</v>
+        <v>0.4866586274141183</v>
       </c>
       <c r="P13">
-        <v>0.4737320390559847</v>
+        <v>0.4866586274141184</v>
       </c>
       <c r="Q13">
-        <v>14.24433034942767</v>
+        <v>5.403862500089445</v>
       </c>
       <c r="R13">
-        <v>128.198973144849</v>
+        <v>48.634762500805</v>
       </c>
       <c r="S13">
-        <v>0.05707066110203681</v>
+        <v>0.02654272538262376</v>
       </c>
       <c r="T13">
-        <v>0.05707066110203684</v>
+        <v>0.02654272538262377</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H14">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I14">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J14">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.626917</v>
+        <v>5.152806666666667</v>
       </c>
       <c r="N14">
-        <v>16.880751</v>
+        <v>15.45842</v>
       </c>
       <c r="O14">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627494</v>
       </c>
       <c r="P14">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627496</v>
       </c>
       <c r="Q14">
-        <v>3.026949357897</v>
+        <v>1.051576196522222</v>
       </c>
       <c r="R14">
-        <v>27.242544221073</v>
+        <v>9.4641857687</v>
       </c>
       <c r="S14">
-        <v>0.01212763230982695</v>
+        <v>0.00516513849172353</v>
       </c>
       <c r="T14">
-        <v>0.01212763230982696</v>
+        <v>0.005165138491723532</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H15">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I15">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J15">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.84347</v>
+        <v>7.974813333333334</v>
       </c>
       <c r="N15">
-        <v>23.53041</v>
+        <v>23.92444</v>
       </c>
       <c r="O15">
-        <v>0.1403245332042314</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="P15">
-        <v>0.1403245332042315</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="Q15">
-        <v>4.21932409527</v>
+        <v>1.627486613711111</v>
       </c>
       <c r="R15">
-        <v>37.97391685743</v>
+        <v>14.6473795234</v>
       </c>
       <c r="S15">
-        <v>0.01690494460699499</v>
+        <v>0.007993898854923732</v>
       </c>
       <c r="T15">
-        <v>0.01690494460699499</v>
+        <v>0.007993898854923735</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H16">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I16">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J16">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.317432666666666</v>
+        <v>5.445246666666667</v>
       </c>
       <c r="N16">
-        <v>15.952298</v>
+        <v>16.33574</v>
       </c>
       <c r="O16">
-        <v>0.09513216175939113</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="P16">
-        <v>0.09513216175939115</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="Q16">
-        <v>2.860465046139333</v>
+        <v>1.111256864322222</v>
       </c>
       <c r="R16">
-        <v>25.744185415254</v>
+        <v>10.0013117789</v>
       </c>
       <c r="S16">
-        <v>0.01146060413075152</v>
+        <v>0.005458278366404053</v>
       </c>
       <c r="T16">
-        <v>0.01146060413075153</v>
+        <v>0.005458278366404056</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H17">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I17">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J17">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.62804133333333</v>
+        <v>9.358310000000001</v>
       </c>
       <c r="N17">
-        <v>31.884124</v>
+        <v>28.07493</v>
       </c>
       <c r="O17">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="P17">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="Q17">
-        <v>1.672602175555111</v>
+        <v>1.369510682583334</v>
       </c>
       <c r="R17">
-        <v>15.053419579996</v>
+        <v>12.32559614325</v>
       </c>
       <c r="S17">
-        <v>0.006701368865927113</v>
+        <v>0.006726771074537402</v>
       </c>
       <c r="T17">
-        <v>0.006701368865927115</v>
+        <v>0.006726771074537404</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H18">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I18">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J18">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>79.438063</v>
       </c>
       <c r="O18">
-        <v>0.4737320390559845</v>
+        <v>0.4866586274141183</v>
       </c>
       <c r="P18">
-        <v>0.4737320390559847</v>
+        <v>0.4866586274141184</v>
       </c>
       <c r="Q18">
-        <v>4.167223694014111</v>
+        <v>3.875032845397222</v>
       </c>
       <c r="R18">
-        <v>37.505013246127</v>
+        <v>34.875295608575</v>
       </c>
       <c r="S18">
-        <v>0.01669620160045032</v>
+        <v>0.01903341039160845</v>
       </c>
       <c r="T18">
-        <v>0.01669620160045033</v>
+        <v>0.01903341039160845</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H19">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I19">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J19">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.626917</v>
+        <v>5.152806666666667</v>
       </c>
       <c r="N19">
-        <v>16.880751</v>
+        <v>15.45842</v>
       </c>
       <c r="O19">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627494</v>
       </c>
       <c r="P19">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627496</v>
       </c>
       <c r="Q19">
-        <v>0.885543565431</v>
+        <v>0.7540703156111112</v>
       </c>
       <c r="R19">
-        <v>7.969892088879001</v>
+        <v>6.7866328405</v>
       </c>
       <c r="S19">
-        <v>0.003547977017805726</v>
+        <v>0.003703847258534588</v>
       </c>
       <c r="T19">
-        <v>0.003547977017805728</v>
+        <v>0.003703847258534589</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H20">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I20">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J20">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.84347</v>
+        <v>7.974813333333334</v>
       </c>
       <c r="N20">
-        <v>23.53041</v>
+        <v>23.92444</v>
       </c>
       <c r="O20">
-        <v>0.1403245332042314</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="P20">
-        <v>0.1403245332042315</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="Q20">
-        <v>1.23437654921</v>
+        <v>1.167047474555556</v>
       </c>
       <c r="R20">
-        <v>11.10938894289</v>
+        <v>10.503427271</v>
       </c>
       <c r="S20">
-        <v>0.00494559477238578</v>
+        <v>0.005732311032173743</v>
       </c>
       <c r="T20">
-        <v>0.004945594772385782</v>
+        <v>0.005732311032173746</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H21">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I21">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J21">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.317432666666666</v>
+        <v>5.445246666666667</v>
       </c>
       <c r="N21">
-        <v>15.952298</v>
+        <v>16.33574</v>
       </c>
       <c r="O21">
-        <v>0.09513216175939113</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="P21">
-        <v>0.09513216175939115</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="Q21">
-        <v>0.8368380558268889</v>
+        <v>0.7968664726111112</v>
       </c>
       <c r="R21">
-        <v>7.531542502442</v>
+        <v>7.1717982535</v>
       </c>
       <c r="S21">
-        <v>0.003352835823784631</v>
+        <v>0.003914053688225175</v>
       </c>
       <c r="T21">
-        <v>0.003352835823784633</v>
+        <v>0.003914053688225176</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H22">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I22">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J22">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.62804133333333</v>
+        <v>9.358310000000001</v>
       </c>
       <c r="N22">
-        <v>31.884124</v>
+        <v>28.07493</v>
       </c>
       <c r="O22">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="P22">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="Q22">
-        <v>5.339421685453334</v>
+        <v>1.157685335733334</v>
       </c>
       <c r="R22">
-        <v>48.05479516907999</v>
+        <v>10.4191680216</v>
       </c>
       <c r="S22">
-        <v>0.02139267470047247</v>
+        <v>0.00568632602057359</v>
       </c>
       <c r="T22">
-        <v>0.02139267470047248</v>
+        <v>0.005686326020573593</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H23">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I23">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J23">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>79.438063</v>
       </c>
       <c r="O23">
-        <v>0.4737320390559845</v>
+        <v>0.4866586274141183</v>
       </c>
       <c r="P23">
-        <v>0.4737320390559847</v>
+        <v>0.4866586274141184</v>
       </c>
       <c r="Q23">
-        <v>13.30296282352333</v>
+        <v>3.275672660062222</v>
       </c>
       <c r="R23">
-        <v>119.72666541171</v>
+        <v>29.48105394056</v>
       </c>
       <c r="S23">
-        <v>0.0532990224412199</v>
+        <v>0.01608946931161944</v>
       </c>
       <c r="T23">
-        <v>0.05329902244121992</v>
+        <v>0.01608946931161945</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H24">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I24">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J24">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.626917</v>
+        <v>5.152806666666667</v>
       </c>
       <c r="N24">
-        <v>16.880751</v>
+        <v>15.45842</v>
       </c>
       <c r="O24">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627494</v>
       </c>
       <c r="P24">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627496</v>
       </c>
       <c r="Q24">
-        <v>2.82690683163</v>
+        <v>0.6374365367111111</v>
       </c>
       <c r="R24">
-        <v>25.44216148467</v>
+        <v>5.7369288304</v>
       </c>
       <c r="S24">
-        <v>0.01132615137372679</v>
+        <v>0.003130964739109062</v>
       </c>
       <c r="T24">
-        <v>0.01132615137372679</v>
+        <v>0.003130964739109064</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H25">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I25">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J25">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.84347</v>
+        <v>7.974813333333334</v>
       </c>
       <c r="N25">
-        <v>23.53041</v>
+        <v>23.92444</v>
       </c>
       <c r="O25">
-        <v>0.1403245332042314</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="P25">
-        <v>0.1403245332042315</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="Q25">
-        <v>3.9404808933</v>
+        <v>0.9865375747555556</v>
       </c>
       <c r="R25">
-        <v>35.4643280397</v>
+        <v>8.8788381728</v>
       </c>
       <c r="S25">
-        <v>0.01578774460602224</v>
+        <v>0.004845681385479915</v>
       </c>
       <c r="T25">
-        <v>0.01578774460602225</v>
+        <v>0.004845681385479917</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H26">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I26">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J26">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.317432666666666</v>
+        <v>5.445246666666667</v>
       </c>
       <c r="N26">
-        <v>15.952298</v>
+        <v>16.33574</v>
       </c>
       <c r="O26">
-        <v>0.09513216175939113</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="P26">
-        <v>0.09513216175939115</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="Q26">
-        <v>2.671424997406666</v>
+        <v>0.6736133143111112</v>
       </c>
       <c r="R26">
-        <v>24.04282497666</v>
+        <v>6.0625198288</v>
       </c>
       <c r="S26">
-        <v>0.0107032052014036</v>
+        <v>0.003308658059960428</v>
       </c>
       <c r="T26">
-        <v>0.01070320520140361</v>
+        <v>0.00330865805996043</v>
       </c>
     </row>
   </sheetData>
